--- a/Dibujos en Autocad/Proyecto II/Final/Movimiento de suelo/Curva - Informe - Planilla.xlsx
+++ b/Dibujos en Autocad/Proyecto II/Final/Movimiento de suelo/Curva - Informe - Planilla.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Gráfico2" sheetId="5" r:id="rId5"/>
     <sheet name="0-4000 mts" sheetId="6" r:id="rId6"/>
     <sheet name="2000 a 4000 mts (2)" sheetId="7" r:id="rId7"/>
-    <sheet name="6000 A 10000" sheetId="9" r:id="rId8"/>
+    <sheet name="Bruckner" sheetId="10" r:id="rId8"/>
     <sheet name="Hoja3" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -9584,11 +9584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116762112"/>
-        <c:axId val="116763648"/>
+        <c:axId val="78021760"/>
+        <c:axId val="78023296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116762112"/>
+        <c:axId val="78021760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9645,12 +9645,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116763648"/>
+        <c:crossAx val="78023296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116763648"/>
+        <c:axId val="78023296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9707,7 +9707,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116762112"/>
+        <c:crossAx val="78021760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
@@ -9722,7 +9722,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13429,11 +13428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198409216"/>
-        <c:axId val="198415104"/>
+        <c:axId val="78154368"/>
+        <c:axId val="78172544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198409216"/>
+        <c:axId val="78154368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13443,12 +13442,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198415104"/>
+        <c:crossAx val="78172544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198415104"/>
+        <c:axId val="78172544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13459,7 +13458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198409216"/>
+        <c:crossAx val="78154368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14603,11 +14602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198202496"/>
-        <c:axId val="198204032"/>
+        <c:axId val="79495936"/>
+        <c:axId val="79497472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198202496"/>
+        <c:axId val="79495936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -14665,13 +14664,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198204032"/>
+        <c:crossAx val="79497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198204032"/>
+        <c:axId val="79497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -14730,7 +14729,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198202496"/>
+        <c:crossAx val="79495936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="2000"/>
@@ -15333,11 +15332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198480256"/>
-        <c:axId val="198481792"/>
+        <c:axId val="79542528"/>
+        <c:axId val="79548416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198480256"/>
+        <c:axId val="79542528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -15396,12 +15395,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198481792"/>
+        <c:crossAx val="79548416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198481792"/>
+        <c:axId val="79548416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15458,7 +15457,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198480256"/>
+        <c:crossAx val="79542528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
@@ -15518,31 +15517,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" u="sng"/>
+              <a:t>Diagrama de Brückner</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.4593868074183032E-2"/>
-          <c:y val="1.2218979435437439E-2"/>
-          <c:w val="0.85674806393579661"/>
-          <c:h val="0.79224482356372117"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Diagrama de Bruckner</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -15557,557 +15558,803 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$P$262:$P$444</c:f>
+              <c:f>Hoja1!$P$180:$P$444</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4925</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4975</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5025</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5075</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5175</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5225</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5275</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5325</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5425</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5475</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5525</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5575</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5675</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5775</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5825</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5925</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5962.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5987.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="83">
                   <c:v>6012.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="84">
                   <c:v>6025</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="85">
                   <c:v>6037.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="86">
                   <c:v>6050</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="87">
                   <c:v>6062.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="88">
                   <c:v>6075</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="89">
                   <c:v>6087.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="90">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="91">
                   <c:v>6112.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="92">
                   <c:v>6125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="93">
                   <c:v>6137.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="94">
                   <c:v>6150</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="95">
                   <c:v>6162.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="96">
                   <c:v>6175</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="97">
                   <c:v>6200</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="98">
                   <c:v>6225</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="99">
                   <c:v>6250</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="100">
                   <c:v>6275</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="101">
                   <c:v>6300</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="102">
                   <c:v>6325</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="103">
                   <c:v>6350</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="104">
                   <c:v>6375</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="105">
                   <c:v>6400</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="106">
                   <c:v>6425</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="107">
                   <c:v>6450</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="108">
                   <c:v>6475</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="109">
                   <c:v>6500</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="110">
                   <c:v>6525</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="111">
                   <c:v>6550</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="112">
                   <c:v>6575</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="113">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="114">
                   <c:v>6625</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="115">
                   <c:v>6650</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="116">
                   <c:v>6675</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="117">
                   <c:v>6700</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="118">
                   <c:v>6725</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="119">
                   <c:v>6750</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="120">
                   <c:v>6775</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="121">
                   <c:v>6800</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="122">
                   <c:v>6812.5</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="123">
                   <c:v>6825</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="124">
                   <c:v>6837.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="125">
                   <c:v>6850</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="126">
                   <c:v>6862.5</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="127">
                   <c:v>6875</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="128">
                   <c:v>6887.5</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="129">
                   <c:v>6900</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="130">
                   <c:v>6912.5</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="131">
                   <c:v>6925</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="132">
                   <c:v>6937.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="133">
                   <c:v>6950</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="134">
                   <c:v>6962.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="135">
                   <c:v>6975</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="136">
                   <c:v>6987.5</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="137">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="138">
                   <c:v>7012.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="139">
                   <c:v>7025</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="140">
                   <c:v>7037.5</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="141">
                   <c:v>7050</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="142">
                   <c:v>7075</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="143">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="144">
                   <c:v>7125</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="145">
                   <c:v>7150</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="146">
                   <c:v>7175</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="147">
                   <c:v>7200</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="148">
                   <c:v>7225</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="149">
                   <c:v>7250</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="150">
                   <c:v>7275</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="151">
                   <c:v>7300</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="152">
                   <c:v>7325</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="153">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="154">
                   <c:v>7375</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="155">
                   <c:v>7400</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="156">
                   <c:v>7425</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="157">
                   <c:v>7450</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="158">
                   <c:v>7475</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="159">
                   <c:v>7500</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="160">
                   <c:v>7525</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="161">
                   <c:v>7550</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="162">
                   <c:v>7575</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="163">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="164">
                   <c:v>7625</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="165">
                   <c:v>7650</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="166">
                   <c:v>7675</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="167">
                   <c:v>7700</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="168">
                   <c:v>7725</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="169">
                   <c:v>7750</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="170">
                   <c:v>7775</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="171">
                   <c:v>7800</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="172">
                   <c:v>7825</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="173">
                   <c:v>7850</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="174">
                   <c:v>7875</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="175">
                   <c:v>7900</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="176">
                   <c:v>7925</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="177">
                   <c:v>7950</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="178">
                   <c:v>7975</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="179">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="180">
                   <c:v>8025</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="181">
                   <c:v>8050</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="182">
                   <c:v>8075</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="183">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="184">
                   <c:v>8125</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="185">
                   <c:v>8150</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="186">
                   <c:v>8175</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="187">
                   <c:v>8200</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="188">
                   <c:v>8225</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="189">
                   <c:v>8250</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="190">
                   <c:v>8275</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="191">
                   <c:v>8300</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="192">
                   <c:v>8325</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="193">
                   <c:v>8350</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="194">
                   <c:v>8375</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="195">
                   <c:v>8400</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="196">
                   <c:v>8425</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="197">
                   <c:v>8450</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="198">
                   <c:v>8475</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="199">
                   <c:v>8500</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="200">
                   <c:v>8525</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="201">
                   <c:v>8550</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="202">
                   <c:v>8575</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="203">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="204">
                   <c:v>8625</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="205">
                   <c:v>8650</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="206">
                   <c:v>8675</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="207">
                   <c:v>8700</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="208">
                   <c:v>8725</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="209">
                   <c:v>8750</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="210">
                   <c:v>8775</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="211">
                   <c:v>8800</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="212">
                   <c:v>8825</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="213">
                   <c:v>8850</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="214">
                   <c:v>8875</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="215">
                   <c:v>8900</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="216">
                   <c:v>8925</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="217">
                   <c:v>8950</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="218">
                   <c:v>8975</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="219">
                   <c:v>9000</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="220">
                   <c:v>9025</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="221">
                   <c:v>9050</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="222">
                   <c:v>9075</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="223">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="224">
                   <c:v>9125</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="225">
                   <c:v>9150</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="226">
                   <c:v>9175</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="227">
                   <c:v>9200</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="228">
                   <c:v>9225</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="229">
                   <c:v>9250</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="230">
                   <c:v>9275</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="231">
                   <c:v>9300</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="232">
                   <c:v>9325</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="233">
                   <c:v>9350</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="234">
                   <c:v>9375</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="235">
                   <c:v>9400</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="236">
                   <c:v>9425</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="237">
                   <c:v>9450</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="238">
                   <c:v>9475</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="239">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="240">
                   <c:v>9525</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="241">
                   <c:v>9550</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="242">
                   <c:v>9575</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="243">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="244">
                   <c:v>9625</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="245">
                   <c:v>9650</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="246">
                   <c:v>9675</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="247">
                   <c:v>9700</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="248">
                   <c:v>9725</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="249">
                   <c:v>9750</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="250">
                   <c:v>9775</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="251">
                   <c:v>9800</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="252">
                   <c:v>9825</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="253">
                   <c:v>9850</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="254">
                   <c:v>9875</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="255">
                   <c:v>9887.5</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="256">
                   <c:v>9900</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="257">
                   <c:v>9912.5</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="258">
                   <c:v>9925</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="259">
                   <c:v>9937.5</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="260">
                   <c:v>9950</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="261">
                   <c:v>9962.5</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="262">
                   <c:v>9975</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="263">
                   <c:v>9987.5</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="264">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -16115,557 +16362,803 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$O$262:$O$444</c:f>
+              <c:f>Hoja1!$O$180:$O$444</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
+                  <c:v>25217.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25321.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25416.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25491.462500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25509.787500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25427.862500000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25205.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24819.112500000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24467.087500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24405.462500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24657.887500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25196.387500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25872.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26407.087500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26781.987500000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27111.787500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27356.512500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27485.087500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27521.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27501.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27462.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27424.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27322.287500000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27130.637500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27020.912500000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27122.137500000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27441.137500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27971.037500000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28495.037500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28814.712500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28954.762500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29047.137500000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29215.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29480.037500000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29850.537500000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30330.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30924.137500000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31633.637500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32389.737499999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33018.337500000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33432.237500000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33636.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33627.6875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33415.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33109.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32912.087500000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32894.112500000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32998.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33179.6875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33502.987500000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34073.787500000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34680.387500000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35095.487500000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35327.337500000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35391.3125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35457.612500000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35693.612500000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35924.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36175.337500000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36685.237500000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37461.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38268.537500000006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38869.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39253.637500000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39446.012500000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39458.362500000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39266.387500000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38858.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38245.487500000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37668.987500000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37359.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37310.887500000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37528.237500000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37930.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38336.637500000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38844.737500000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39611.137500000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40481.837500000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41256.237500000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41571.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41851.037499999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42103.587500000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>42323.037499999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="83">
                   <c:v>42508.737499999996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="84">
                   <c:v>42651.912499999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="85">
                   <c:v>42756.4375</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="86">
                   <c:v>42812.3125</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="87">
                   <c:v>42794.525000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="88">
                   <c:v>42698.5625</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="89">
                   <c:v>42533.962500000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="90">
                   <c:v>42313.85</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="91">
                   <c:v>42070.787499999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="92">
                   <c:v>41848.037499999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="93">
                   <c:v>41657.125</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="94">
                   <c:v>41505.550000000003</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="95">
                   <c:v>41401.850000000006</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="96">
                   <c:v>41339.137500000004</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="97">
                   <c:v>41334.712500000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="98">
                   <c:v>41500.287499999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="99">
                   <c:v>41790.737499999996</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="100">
                   <c:v>42151.137499999997</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="101">
                   <c:v>42721.037499999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="102">
                   <c:v>43582.9375</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="103">
                   <c:v>44455.837500000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="104">
                   <c:v>45127.9375</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="105">
                   <c:v>45580.337500000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="106">
                   <c:v>45784.537499999999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="107">
                   <c:v>45849.887499999997</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="108">
                   <c:v>45936.8125</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="109">
                   <c:v>46065.237500000003</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="110">
                   <c:v>46221.637500000004</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="111">
                   <c:v>46359.137500000004</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="112">
                   <c:v>46401.987500000003</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="113">
                   <c:v>46330.612500000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="114">
                   <c:v>46231.537500000006</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="115">
                   <c:v>46267.462500000009</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="116">
                   <c:v>46442.187500000007</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="117">
                   <c:v>46586.787500000006</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="118">
                   <c:v>46638.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="119">
                   <c:v>46604.9375</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="120">
                   <c:v>46451.362500000003</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="121">
                   <c:v>46207.362500000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="122">
                   <c:v>46063.462500000001</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="123">
                   <c:v>45901.65</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="124">
                   <c:v>45696.587500000001</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="125">
                   <c:v>45432.275000000001</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="126">
                   <c:v>45126.775000000001</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="127">
                   <c:v>44785.587500000001</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="128">
                   <c:v>44403.9</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="129">
                   <c:v>43977.4</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="130">
                   <c:v>43500.587500000001</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="131">
                   <c:v>42969.962500000001</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="132">
                   <c:v>42381.525000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="133">
                   <c:v>41732.9</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="134">
                   <c:v>41022.712500000001</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="135">
                   <c:v>40246.837500000001</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="136">
                   <c:v>39466.962500000001</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="137">
                   <c:v>38817.087500000001</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="138">
                   <c:v>38356.775000000001</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="139">
                   <c:v>38066.85</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="140">
                   <c:v>37942.775000000001</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="141">
                   <c:v>37993.9375</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="142">
                   <c:v>38306.5625</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="143">
                   <c:v>38654.662499999999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="144">
                   <c:v>39010.5625</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="145">
                   <c:v>39372.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="146">
                   <c:v>39738.162500000006</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="147">
                   <c:v>40101.662500000006</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="148">
                   <c:v>40457.162500000006</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="149">
                   <c:v>40803.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="150">
                   <c:v>41205.762500000004</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="151">
                   <c:v>41640.762500000004</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="152">
                   <c:v>42067.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="153">
                   <c:v>42529.262500000004</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="154">
                   <c:v>43025.162500000006</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="155">
                   <c:v>43556.362500000003</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="156">
                   <c:v>44123.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="157">
                   <c:v>44728.362500000003</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="158">
                   <c:v>45370.462500000001</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="159">
                   <c:v>46048.962500000001</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="160">
                   <c:v>46644.0625</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="161">
                   <c:v>47036.462500000001</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="162">
                   <c:v>47209.462500000001</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="163">
                   <c:v>47132.337500000001</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="164">
                   <c:v>46835.8125</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="165">
                   <c:v>46479.112500000003</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="166">
                   <c:v>46190.012500000004</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="167">
                   <c:v>46009.937500000007</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="168">
                   <c:v>46001.287500000006</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="169">
                   <c:v>46140.912500000006</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="170">
                   <c:v>46329.612500000003</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="171">
                   <c:v>46406.862500000003</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="172">
                   <c:v>46212.087500000001</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="173">
                   <c:v>45774.087500000001</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="174">
                   <c:v>45189.587500000001</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="175">
                   <c:v>44483.087500000001</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="176">
                   <c:v>43687.462500000001</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="177">
                   <c:v>42903.712500000001</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="178">
                   <c:v>42250.587500000001</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="179">
                   <c:v>41790.087500000001</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="180">
                   <c:v>41573.712500000001</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="181">
                   <c:v>41695.612500000003</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="182">
                   <c:v>42264.412500000006</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="183">
                   <c:v>43361.912500000006</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="184">
                   <c:v>44589.312500000007</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="185">
                   <c:v>45256.937500000007</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="186">
                   <c:v>45212.137500000004</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="187">
                   <c:v>44925.612500000003</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="188">
                   <c:v>44730.337500000001</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="189">
                   <c:v>44591.037499999999</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="190">
                   <c:v>44483.6875</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="191">
                   <c:v>44380.612500000003</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="192">
                   <c:v>44293.0625</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="193">
                   <c:v>44273.4375</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="194">
                   <c:v>44285.637499999997</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="195">
                   <c:v>44311.387499999997</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="196">
                   <c:v>44440.537499999999</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="197">
                   <c:v>44704.862499999996</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="198">
                   <c:v>45145.662499999999</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="199">
                   <c:v>45882.0625</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="200">
                   <c:v>46707.162499999999</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="201">
                   <c:v>47257.362499999996</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="202">
                   <c:v>47489.362499999996</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="203">
                   <c:v>47330.287499999999</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="204">
                   <c:v>46745.662499999999</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="205">
                   <c:v>46055.162499999999</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="206">
                   <c:v>45558.037499999999</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="207">
                   <c:v>45279.887499999997</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="208">
                   <c:v>45113.737499999996</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="209">
                   <c:v>45077.712499999994</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="210">
                   <c:v>45236.012499999997</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="211">
                   <c:v>45538.462499999994</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="212">
                   <c:v>45953.662499999991</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="213">
                   <c:v>46477.562499999993</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="214">
                   <c:v>47082.162499999991</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="215">
                   <c:v>47713.76249999999</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="216">
                   <c:v>48246.062499999993</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="217">
                   <c:v>48650.462499999994</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="218">
                   <c:v>49028.062499999993</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="219">
                   <c:v>49418.062499999993</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="220">
                   <c:v>49829.862499999996</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="221">
                   <c:v>50290.262499999997</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="222">
                   <c:v>50823.362499999996</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="223">
                   <c:v>51432.262499999997</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="224">
                   <c:v>51981.0625</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="225">
                   <c:v>52487.162499999999</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="226">
                   <c:v>53014.262499999997</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="227">
                   <c:v>53401.837499999994</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="228">
                   <c:v>53560.812499999993</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="229">
                   <c:v>53495.987499999996</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="230">
                   <c:v>53429.462499999994</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="231">
                   <c:v>53501.362499999996</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="232">
                   <c:v>53643.962499999994</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="233">
                   <c:v>53835.187499999993</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="234">
                   <c:v>54055.812499999993</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="235">
                   <c:v>54288.587499999994</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="236">
                   <c:v>54528.687499999993</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="237">
                   <c:v>54786.51249999999</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="238">
                   <c:v>55074.412499999991</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="239">
                   <c:v>55406.112499999988</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="240">
                   <c:v>55798.212499999987</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="241">
                   <c:v>56268.912499999984</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="242">
                   <c:v>56809.312499999985</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="243">
                   <c:v>57329.112499999988</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="244">
                   <c:v>57768.412499999991</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="245">
                   <c:v>58156.212499999994</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="246">
                   <c:v>58519.512499999997</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="247">
                   <c:v>58868.912499999999</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="248">
                   <c:v>59199.712500000001</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="249">
                   <c:v>59494.912499999999</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="250">
                   <c:v>59732.737499999996</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="251">
                   <c:v>59895.837499999994</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="252">
                   <c:v>60068.612499999996</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="253">
                   <c:v>60346.912499999999</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="254">
                   <c:v>60713.212500000001</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="255">
                   <c:v>60913.0625</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="256">
                   <c:v>61111.162499999999</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="257">
                   <c:v>61305.512499999997</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="258">
                   <c:v>61497.862499999996</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="259">
                   <c:v>61691.412499999999</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="260">
                   <c:v>61889.662499999999</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="261">
                   <c:v>62093.012499999997</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="262">
                   <c:v>62298.0625</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="263">
                   <c:v>62501.387499999997</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="264">
                   <c:v>62703.6875</c:v>
                 </c:pt>
               </c:numCache>
@@ -16686,35 +17179,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218685440"/>
-        <c:axId val="218686976"/>
+        <c:axId val="60379136"/>
+        <c:axId val="60380672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218685440"/>
+        <c:axId val="60379136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
-          <c:min val="6000"/>
+          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Progresiva en metros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -16749,35 +17248,49 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218686976"/>
+        <c:crossAx val="60380672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218686976"/>
+        <c:axId val="60380672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="30000"/>
+          <c:min val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Volumenes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> en m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -16812,7 +17325,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218685440"/>
+        <c:crossAx val="60379136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
@@ -16825,38 +17338,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -17471,7 +17952,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17482,7 +17963,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17493,7 +17974,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17510,7 +17991,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{597A91E0-8FBD-4D4B-B04E-B672C424C8F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597A91E0-8FBD-4D4B-B04E-B672C424C8F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17564,7 +18045,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6272893"/>
+    <xdr:ext cx="8675077" cy="6301154"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
@@ -17591,7 +18072,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6272893"/>
+    <xdr:ext cx="8675077" cy="6301154"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
@@ -17618,7 +18099,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8675077" cy="6301154"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
@@ -17684,7 +18165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -17736,7 +18217,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -17930,7 +18411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17940,8 +18421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AB604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="E169" workbookViewId="0">
+      <selection activeCell="O181" sqref="O181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18308,7 +18789,7 @@
         <v>116.625</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L8:L71" si="8">+H9*J9</f>
+        <f t="shared" ref="L9:L71" si="8">+H9*J9</f>
         <v>145.75</v>
       </c>
       <c r="M9" s="6">
@@ -18386,7 +18867,7 @@
         <v>20.5</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" ref="N8:N71" si="11">+M10-L10</f>
+        <f t="shared" ref="N10:N71" si="11">+M10-L10</f>
         <v>-315.625</v>
       </c>
       <c r="O10" s="6">
